--- a/Projekt.xlsx
+++ b/Projekt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mixul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eemil\OneDrive\Tiedostot\GitHub\nettisivustoprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A317FCC-BC19-4B87-B92C-20EEA826CC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E482AFA-077A-446A-84D6-398DB0902DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="1260" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tago" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Suunnittelu</t>
   </si>
@@ -63,14 +63,20 @@
     <t>Viikko 51</t>
   </si>
   <si>
-    <t>Etusivu</t>
+    <t>Etusivu ja sen muokkaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muut alasivustot ja niiden suunnittelu </t>
+  </si>
+  <si>
+    <t>Viimeiset muokkaukset ja parannukset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -339,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -363,9 +375,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,12 +660,12 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -708,7 +722,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -716,27 +730,31 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" s="9"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -749,8 +767,8 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
